--- a/biology/Zoologie/Chiasmocleis_carvalhoi/Chiasmocleis_carvalhoi.xlsx
+++ b/biology/Zoologie/Chiasmocleis_carvalhoi/Chiasmocleis_carvalhoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis carvalhoi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis carvalhoi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre, :
 en Colombie dans la région d'Amazonas ;
 au Pérou dans la région de Loreto.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chiasmocleis carvalhoi Cruz, Caramaschi &amp; Izeckson, 1997 est un synonyme de Chiasmocleis lacrimae Peloso, Sturaro, Forlani, Gaucher, Motta &amp; Wheeler, 2014.</t>
         </is>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Antenor Leitão de Carvalho[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Antenor Leitão de Carvalho.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nelson, 1975 : Another New Miniature 4-Toed South American Microhylid Frog (Genus: Syncope). Journal of Herpetology, vol. 9, no 1, p. 81-84.</t>
         </is>
